--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nova\nova\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\despin\Desktop\GitHub\nova\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856F6274-C56A-4F29-A7FF-40DD27776825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639E51DF-03E0-419B-95A8-79AAC5EE36DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="139">
   <si>
     <t>Columna</t>
   </si>
@@ -52,9 +50,6 @@
     <t>Enunciado de la Historia</t>
   </si>
   <si>
-    <t>XX-XXXX-XXXX</t>
-  </si>
-  <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
   </si>
   <si>
@@ -62,9 +57,6 @@
   </si>
   <si>
     <t>Elaborado por: pmoinformatica.com</t>
-  </si>
-  <si>
-    <t>Como un [Rol], necesito [descripción de la funcionalidad], con la finalidad de [Razón o Resultado]</t>
   </si>
   <si>
     <t>Estado</t>
@@ -349,6 +341,222 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>01-0004-0001</t>
+  </si>
+  <si>
+    <t>Como un cliente, necesito activar el asistente virtual, con la finalidad de obtener atencion personalizada</t>
+  </si>
+  <si>
+    <t>Activar asistente</t>
+  </si>
+  <si>
+    <t>01-0004-0002</t>
+  </si>
+  <si>
+    <t>Como un cliente, necesito realizar preguntas al asistente virtual, con la finalidad de obtener respuestas precisas y relevantes.</t>
+  </si>
+  <si>
+    <t>Responder preguntas</t>
+  </si>
+  <si>
+    <t>01-0004-0003</t>
+  </si>
+  <si>
+    <t>Como un cliente, necesito recibir recomendaciones del asistente virtual, con la finalidad de descubrir productos, servicios o información útil.</t>
+  </si>
+  <si>
+    <t>Obtener recomendaciones</t>
+  </si>
+  <si>
+    <t>01-0004-0004</t>
+  </si>
+  <si>
+    <t>Como un cliente, necesito obtener asistencia personalizada del asistente virtual, con la finalidad de resolver problemas o dudas específicas.</t>
+  </si>
+  <si>
+    <t>Ofrecer asistencia personalizada</t>
+  </si>
+  <si>
+    <t>01-0005-0001</t>
+  </si>
+  <si>
+    <r>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> un cliente, quiero agregar productos al carrito, para poder comprarlos posteriormente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Agregar productos</t>
+  </si>
+  <si>
+    <t>2 puntos</t>
+  </si>
+  <si>
+    <t>01-0005-0002</t>
+  </si>
+  <si>
+    <r>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> un cliente, quiero ver mi carrito de compras, para revisar los productos que he seleccionado.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ver carrito de compras</t>
+  </si>
+  <si>
+    <t>01-0005-0003</t>
+  </si>
+  <si>
+    <r>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> un cliente, quiero modificar la cantidad de productos en mi carrito, para ajustar mi compra.</t>
+    </r>
+  </si>
+  <si>
+    <t>Modificar cantidad</t>
+  </si>
+  <si>
+    <t>01-0005-0004</t>
+  </si>
+  <si>
+    <r>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> un cliente, quiero eliminar productos de mi carrito, para quitar los que ya no deseo.</t>
+    </r>
+  </si>
+  <si>
+    <t>Eliminar productos</t>
+  </si>
+  <si>
+    <t>01-0005-0005</t>
+  </si>
+  <si>
+    <r>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> un cliente, quiero proceder al pago, para finalizar mi compra.</t>
+    </r>
+  </si>
+  <si>
+    <t>Proceder al pago</t>
+  </si>
+  <si>
+    <t>01-0006-0001</t>
+  </si>
+  <si>
+    <t>Como cliente, quiero seleccionar un método de pago (tarjeta de crédito, débito, PayPal), para poder realizar mi compra de forma conveniente.</t>
+  </si>
+  <si>
+    <t>Seleccionar metodo de pago</t>
+  </si>
+  <si>
+    <t>01-0006-0002</t>
+  </si>
+  <si>
+    <r>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cliente, quiero proporcionar mi información de pago de forma segura, para asegurarme de que mis datos financieros estén protegidos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Proporcionar informacion</t>
+  </si>
+  <si>
+    <t>01-0006-0003</t>
+  </si>
+  <si>
+    <r>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cliente, quiero seleccionar una plataforma de pago específica (si aplica), para aprovechar promociones u opciones de pago personalizadas.</t>
+    </r>
+  </si>
+  <si>
+    <t>Seleccionar la plataforma de pago</t>
+  </si>
+  <si>
+    <t>01-0006-0004</t>
+  </si>
+  <si>
+    <r>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cliente, quiero que mi información de pago sea verificada, para evitar errores y asegurarme de que el pago se procese correctamente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verificar informacion</t>
   </si>
 </sst>
 </file>
@@ -440,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -454,6 +662,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,9 +687,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -513,9 +727,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,9 +762,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,9 +814,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,38 +1007,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I36"/>
+  <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.08984375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:9" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -798,747 +1046,962 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
+    </row>
+    <row r="6" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    </row>
+    <row r="7" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="5" t="s">
+    </row>
+    <row r="8" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5" t="s">
+    </row>
+    <row r="11" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="12" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="G12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>88</v>
+        <v>127</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>67</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>72</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>67</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>133</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>67</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="C36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
+      <c r="H36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="C37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="H37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="E38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="E40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1555,26 +2018,26 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.90625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="2.88671875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:3" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1582,68 +2045,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+    <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+    <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\despin\Desktop\GitHub\nova\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nova\nova\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639E51DF-03E0-419B-95A8-79AAC5EE36DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD4AB7F-F076-4D65-8601-99388357839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="162">
   <si>
     <t>Columna</t>
   </si>
@@ -235,9 +235,6 @@
     <t>PROYECTO NOVA</t>
   </si>
   <si>
-    <t>01-0007-0001</t>
-  </si>
-  <si>
     <t>Carrito de Compras</t>
   </si>
   <si>
@@ -290,15 +287,6 @@
   </si>
   <si>
     <t>Actualización de Inventarios</t>
-  </si>
-  <si>
-    <t>01-0008-0001</t>
-  </si>
-  <si>
-    <t>01-0009-0001</t>
-  </si>
-  <si>
-    <t>01-0009-0002</t>
   </si>
   <si>
     <t>Como un cliente, necesito realizar la confirmación de compra, con la finalidad de adquirir productos de la plataforma</t>
@@ -557,6 +545,87 @@
   </si>
   <si>
     <t>Verificar informacion</t>
+  </si>
+  <si>
+    <t>07-0001-0001</t>
+  </si>
+  <si>
+    <t>08-0001-0001</t>
+  </si>
+  <si>
+    <t>09-0001-0001</t>
+  </si>
+  <si>
+    <t>09-0001-0002</t>
+  </si>
+  <si>
+    <t>07-0002-0001</t>
+  </si>
+  <si>
+    <t>Como un Desarrollador de backend, necesito refactorizar el módulo de transacciones de venta, con la finalidad de mejorar la mantenibilidad y rendimiento del sistema.</t>
+  </si>
+  <si>
+    <t>Refactorización del módulo de transacciones de venta</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Incluye implementación de pruebas unitarias y documentación del código refactorizado.</t>
+  </si>
+  <si>
+    <t>07-0002-0002</t>
+  </si>
+  <si>
+    <t>Como un Ingeniero de datos, necesito optimizar la base de datos para actualización de inventario en tiempo real, con la finalidad de reflejar las ventas en tiempo real y evitar inconsistencias de stock.</t>
+  </si>
+  <si>
+    <t>Optimización de base de datos para inventario en tiempo real</t>
+  </si>
+  <si>
+    <t>13 puntos</t>
+  </si>
+  <si>
+    <t>Incluye la implementación de índices, normalización de tablas, y triggers de actualización.</t>
+  </si>
+  <si>
+    <t>08-0002-0001</t>
+  </si>
+  <si>
+    <t>Como un Desarrollador de frontend, necesito implementar un módulo para enviar solicitudes de calificación, con la finalidad de recopilar feedback de los usuarios después de la compra.</t>
+  </si>
+  <si>
+    <t>Implementación de módulo de solicitudes de calificación</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Incluye registro de calificaciones y comentarios, pruebas de usabilidad, e integración con el sistema de análisis.</t>
+  </si>
+  <si>
+    <t>09-0002-0001</t>
+  </si>
+  <si>
+    <t>Como un Administrador de sistemas, necesito optimizar el módulo de gestión de proveedores, con la finalidad de mejorar la eficiencia en la administración de proveedores.</t>
+  </si>
+  <si>
+    <t>Optimización del módulo de gestión de proveedores</t>
+  </si>
+  <si>
+    <t>Incluye la implementación de una interfaz mejorada, actualización en tiempo real, y registro de transacciones.</t>
+  </si>
+  <si>
+    <t>09-0002-0002</t>
+  </si>
+  <si>
+    <t>Como un Desarrollador de backend, necesito optimizar el sistema de órdenes de compra, con la finalidad de mejorar la eficiencia en el procesamiento de órdenes de compra.</t>
+  </si>
+  <si>
+    <t>Optimización del sistema de órdenes de compra</t>
+  </si>
+  <si>
+    <t>Incluye la implementación de comparación de ofertas, negociación de términos, y seguimiento de órdenes.</t>
   </si>
 </sst>
 </file>
@@ -621,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -644,11 +713,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -669,6 +751,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,9 +776,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -727,9 +816,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,26 +851,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,26 +886,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1007,38 +1062,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I41"/>
+  <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.08984375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1090,7 +1145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1142,7 +1197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1168,7 +1223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
@@ -1194,7 +1249,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
@@ -1220,7 +1275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>52</v>
       </c>
@@ -1246,7 +1301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
@@ -1272,15 +1327,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>61</v>
@@ -1289,24 +1344,24 @@
         <v>59</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>61</v>
@@ -1315,24 +1370,24 @@
         <v>59</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>61</v>
@@ -1341,24 +1396,24 @@
         <v>31</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>61</v>
@@ -1367,50 +1422,50 @@
         <v>59</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+      <c r="H17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>61</v>
@@ -1419,24 +1474,24 @@
         <v>31</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>61</v>
@@ -1445,24 +1500,24 @@
         <v>59</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>61</v>
@@ -1471,24 +1526,24 @@
         <v>31</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>61</v>
@@ -1497,24 +1552,24 @@
         <v>31</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>61</v>
@@ -1523,24 +1578,24 @@
         <v>59</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>61</v>
@@ -1549,24 +1604,24 @@
         <v>24</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>61</v>
@@ -1575,24 +1630,24 @@
         <v>24</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>61</v>
@@ -1601,24 +1656,24 @@
         <v>24</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>61</v>
@@ -1627,24 +1682,24 @@
         <v>24</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>61</v>
@@ -1653,24 +1708,24 @@
         <v>24</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>61</v>
@@ -1679,24 +1734,24 @@
         <v>31</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>61</v>
@@ -1705,24 +1760,24 @@
         <v>31</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>61</v>
@@ -1731,24 +1786,24 @@
         <v>31</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>61</v>
@@ -1757,24 +1812,24 @@
         <v>24</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>61</v>
@@ -1783,24 +1838,24 @@
         <v>36</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>61</v>
@@ -1809,24 +1864,24 @@
         <v>24</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>61</v>
@@ -1835,24 +1890,24 @@
         <v>31</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>61</v>
@@ -1861,24 +1916,24 @@
         <v>24</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>61</v>
@@ -1887,24 +1942,24 @@
         <v>24</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>61</v>
@@ -1913,24 +1968,24 @@
         <v>24</v>
       </c>
       <c r="G37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>61</v>
@@ -1939,24 +1994,24 @@
         <v>24</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>61</v>
@@ -1965,24 +2020,24 @@
         <v>31</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>61</v>
@@ -1991,17 +2046,144 @@
         <v>31</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="5"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2018,26 +2200,26 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="2.90625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2053,7 +2235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2069,7 +2251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2077,7 +2259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2085,7 +2267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2093,7 +2275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nova\nova\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD4AB7F-F076-4D65-8601-99388357839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD3E8B-481A-4098-9E1C-664A44A6B692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="175">
   <si>
     <t>Columna</t>
   </si>
@@ -626,6 +615,45 @@
   </si>
   <si>
     <t>Incluye la implementación de comparación de ofertas, negociación de términos, y seguimiento de órdenes.</t>
+  </si>
+  <si>
+    <t>HT-0001</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito modelar el esquema relacional de la BD del proyecto, con la finalidad de generar una BD funcional y adaptable al proyecto.</t>
+  </si>
+  <si>
+    <t>Modelado BD</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>Modelo hecho</t>
+  </si>
+  <si>
+    <t>HT-0002</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito configurar el entorno de desarrollo, con la finalidad de contar con las herramientas necesarias para desarrollar el proyecto.</t>
+  </si>
+  <si>
+    <t>Configurar IDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDE configurado </t>
+  </si>
+  <si>
+    <t>HT-0003</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito construir la capa de acceso a datos, con la finalidad de proporcionar una capa de abstracción entre la lógica de negocio y los detalles de cómo se almacenan los datos.</t>
+  </si>
+  <si>
+    <t>Capa de Acceso a Datos</t>
+  </si>
+  <si>
+    <t>Capa de acceso a datos creada</t>
   </si>
 </sst>
 </file>
@@ -1062,38 +1090,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I45"/>
+  <dimension ref="B1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.08984375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:9" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1119,21 +1147,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>25</v>
@@ -1142,50 +1170,50 @@
         <v>26</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>37</v>
@@ -1194,18 +1222,18 @@
         <v>26</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>61</v>
@@ -1214,180 +1242,180 @@
         <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="H11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+    <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="H13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+    <row r="14" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="H14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+    <row r="15" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>61</v>
@@ -1396,24 +1424,24 @@
         <v>31</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="I15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>105</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>61</v>
@@ -1422,134 +1450,134 @@
         <v>59</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
+      <c r="H17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>65</v>
@@ -1561,145 +1589,145 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
+      <c r="H26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>61</v>
@@ -1708,102 +1736,102 @@
         <v>24</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
+      <c r="H30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B31" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>61</v>
@@ -1812,7 +1840,7 @@
         <v>24</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>26</v>
@@ -1821,24 +1849,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>26</v>
@@ -1847,24 +1875,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>26</v>
@@ -1873,15 +1901,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>61</v>
@@ -1890,7 +1918,7 @@
         <v>31</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>26</v>
@@ -1899,15 +1927,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>61</v>
@@ -1916,7 +1944,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>26</v>
@@ -1925,24 +1953,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>26</v>
@@ -1951,15 +1979,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>61</v>
@@ -1968,7 +1996,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>26</v>
@@ -1977,47 +2005,47 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B39" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>67</v>
@@ -2029,21 +2057,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>67</v>
@@ -2055,133 +2083,237 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>142</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="5" t="s">
+      <c r="H49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2200,26 +2332,26 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.90625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="2.88671875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:3" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2235,7 +2367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2243,7 +2375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2251,7 +2383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2259,7 +2391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2275,7 +2407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD3E8B-481A-4098-9E1C-664A44A6B692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD38AA9-6A45-40F0-89FB-B0F4ECEDBFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="179">
   <si>
     <t>Columna</t>
   </si>
@@ -654,6 +654,18 @@
   </si>
   <si>
     <t>Capa de acceso a datos creada</t>
+  </si>
+  <si>
+    <t>HT-0004</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito elaborar los diagramas de actividades de las funcionalidades del proyecto, con la finalidad de comprender con mayor claridad las condiciones y limitaciones asociadas con cada operación específica.</t>
+  </si>
+  <si>
+    <t>Diagrama de actividades</t>
+  </si>
+  <si>
+    <t>Un diagrama de actividades por cada funcionalidad</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I49"/>
+  <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1118,7 @@
     <col min="6" max="6" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" style="2" customWidth="1"/>
     <col min="10" max="10" width="2.109375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="11.44140625" style="2"/>
   </cols>
@@ -1225,30 +1237,30 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1277,21 +1289,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>25</v>
@@ -1300,50 +1312,50 @@
         <v>26</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>37</v>
@@ -1352,24 +1364,24 @@
         <v>26</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>37</v>
@@ -1378,50 +1390,50 @@
         <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>50</v>
@@ -1430,24 +1442,24 @@
         <v>26</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>50</v>
@@ -1456,18 +1468,18 @@
         <v>26</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>61</v>
@@ -1476,24 +1488,24 @@
         <v>59</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>99</v>
+      <c r="I17" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>61</v>
@@ -1512,20 +1524,20 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>102</v>
+      <c r="B19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>64</v>
@@ -1539,19 +1551,19 @@
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>64</v>
@@ -1563,24 +1575,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>26</v>
@@ -1591,19 +1603,19 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>65</v>
@@ -1617,19 +1629,19 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>65</v>
@@ -1643,19 +1655,19 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>65</v>
@@ -1669,13 +1681,13 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>61</v>
@@ -1693,24 +1705,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>26</v>
@@ -1721,19 +1733,19 @@
     </row>
     <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>66</v>
@@ -1747,13 +1759,13 @@
     </row>
     <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>61</v>
@@ -1773,13 +1785,13 @@
     </row>
     <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>61</v>
@@ -1799,13 +1811,13 @@
     </row>
     <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>82</v>
+        <v>132</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>61</v>
@@ -1814,12 +1826,12 @@
         <v>24</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1828,10 +1840,10 @@
         <v>135</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>61</v>
@@ -1854,16 +1866,16 @@
         <v>135</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>64</v>
@@ -1880,10 +1892,10 @@
         <v>135</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>61</v>
@@ -1892,7 +1904,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>26</v>
@@ -1903,13 +1915,13 @@
     </row>
     <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>61</v>
@@ -1932,19 +1944,19 @@
         <v>136</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>26</v>
@@ -1955,19 +1967,19 @@
     </row>
     <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>66</v>
@@ -1984,16 +1996,16 @@
         <v>137</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>66</v>
@@ -2010,16 +2022,16 @@
         <v>137</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>66</v>
@@ -2036,19 +2048,19 @@
         <v>137</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>26</v>
@@ -2059,13 +2071,13 @@
     </row>
     <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>61</v>
@@ -2088,10 +2100,10 @@
         <v>138</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>61</v>
@@ -2114,10 +2126,10 @@
         <v>138</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>61</v>
@@ -2140,16 +2152,16 @@
         <v>138</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>67</v>
@@ -2166,10 +2178,10 @@
         <v>138</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>61</v>
@@ -2187,133 +2199,159 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>142</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>142</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>142</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>142</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="5" t="s">
+      <c r="H50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>161</v>
       </c>
     </row>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nova\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFC046-77B4-4A14-B810-B20F1A6C2D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B52F19B-1E9D-4D26-8329-0740696B2CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="186">
   <si>
     <t>Columna</t>
   </si>
@@ -675,6 +675,18 @@
   </si>
   <si>
     <t>Implementación sistema de feedback</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito elaborar un avance del backend de las funciones CRUD de la función de "Gestion de inventario" del proyecto, con la finalidad de establecer las bases de la logica de programación que obtendrá esta función.</t>
+  </si>
+  <si>
+    <t>Avance backend "Gestion de inventario"</t>
+  </si>
+  <si>
+    <t>Da unos problemas con el envio de datos a la BD</t>
+  </si>
+  <si>
+    <t>HT-0007</t>
   </si>
 </sst>
 </file>
@@ -1111,38 +1123,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I50"/>
+  <dimension ref="B1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.08984375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:9" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>158</v>
       </c>
@@ -1194,7 +1206,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>163</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>167</v>
       </c>
@@ -1246,7 +1258,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>171</v>
       </c>
@@ -1272,7 +1284,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>175</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>176</v>
       </c>
@@ -1324,21 +1336,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>60</v>
@@ -1347,24 +1359,24 @@
         <v>23</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>60</v>
@@ -1373,24 +1385,24 @@
         <v>23</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>60</v>
@@ -1399,24 +1411,24 @@
         <v>23</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>60</v>
@@ -1425,24 +1437,24 @@
         <v>23</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>60</v>
@@ -1451,50 +1463,50 @@
         <v>23</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>46</v>
@@ -1503,18 +1515,18 @@
         <v>23</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>57</v>
@@ -1523,24 +1535,24 @@
         <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>95</v>
+      <c r="I18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>57</v>
@@ -1558,21 +1570,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>98</v>
+    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>60</v>
@@ -1584,21 +1596,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>60</v>
@@ -1610,47 +1622,47 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>61</v>
@@ -1662,21 +1674,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>61</v>
@@ -1688,21 +1700,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>61</v>
@@ -1714,15 +1726,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>57</v>
@@ -1740,47 +1752,47 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="E28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>62</v>
@@ -1792,15 +1804,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>57</v>
@@ -1818,15 +1830,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>57</v>
@@ -1844,15 +1856,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>78</v>
+        <v>128</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>57</v>
@@ -1861,24 +1873,24 @@
         <v>21</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="I31" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>57</v>
@@ -1896,21 +1908,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>60</v>
@@ -1922,15 +1934,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>57</v>
@@ -1939,7 +1951,7 @@
         <v>27</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>23</v>
@@ -1948,15 +1960,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>57</v>
@@ -1974,24 +1986,24 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>23</v>
@@ -2000,21 +2012,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>62</v>
@@ -2026,21 +2038,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>62</v>
@@ -2052,21 +2064,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>62</v>
@@ -2078,41 +2090,41 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>57</v>
@@ -2130,15 +2142,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>57</v>
@@ -2156,15 +2168,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>57</v>
@@ -2182,21 +2194,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>63</v>
@@ -2208,15 +2220,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>57</v>
@@ -2234,133 +2246,159 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="87" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="87" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="87" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="5" t="s">
+      <c r="H51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2379,26 +2417,26 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.90625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="2.88671875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:3" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2430,7 +2468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2438,7 +2476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2446,7 +2484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2454,7 +2492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2462,7 +2500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B52F19B-1E9D-4D26-8329-0740696B2CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732703B9-752E-4220-87D6-486188D5136B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="225">
   <si>
     <t>Columna</t>
   </si>
@@ -683,10 +683,127 @@
     <t>Avance backend "Gestion de inventario"</t>
   </si>
   <si>
-    <t>Da unos problemas con el envio de datos a la BD</t>
-  </si>
-  <si>
     <t>HT-0007</t>
+  </si>
+  <si>
+    <t>HT-0008</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito implementar el backend de la función de "Sistema de Registro y Autenticación" del proyecto, con la finalidad de poder crear usuarios y permitir su inicio de sesión</t>
+  </si>
+  <si>
+    <t>Implementación sistema de registro y autenticación</t>
+  </si>
+  <si>
+    <t>HT-0009</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito implementar el backend de la función de "Catalogos de productos" del proyecto, con la finalidad de mostrar los productos registrados en el sistema.</t>
+  </si>
+  <si>
+    <t>Implementación Catálogo de productos</t>
+  </si>
+  <si>
+    <t>HT-0010</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito implementar el backend de la función de "Carritos de Compra" del proyecto, con la finalidad de mostrar un registro de los prodcutos a comprar.</t>
+  </si>
+  <si>
+    <t>Implementación Carrito de compra</t>
+  </si>
+  <si>
+    <t>HT-0011</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito implementar el backend de la función de "Registro de Compras de Productos a los Proveedores" del proyecto, con la finalidad de mantener un registro de que producto se compra a cada proveedor.</t>
+  </si>
+  <si>
+    <t>Implementación de Registro de Proveedores</t>
+  </si>
+  <si>
+    <t>HT-0012</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito implementar la función de "Asistente Virtual con IA", con la finalidad de contar con una herramienta que ayude al cliente en su compra</t>
+  </si>
+  <si>
+    <t>Implementación de Asistente Virtual con IA</t>
+  </si>
+  <si>
+    <t>HT-0013</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito implementar el backend de la función de "Método de Pago" del proyecto, con la finalidad de establecer una modalidad para pagar el producto.</t>
+  </si>
+  <si>
+    <t>Implementación Metodo de pago</t>
+  </si>
+  <si>
+    <t>HU-0001</t>
+  </si>
+  <si>
+    <t>Como un usuario, necesito crear mi cuenta en la plataforma, con la finalidad de poder tener acceso a los beneficios que la plataforma ofrece.</t>
+  </si>
+  <si>
+    <t>Crear Cuenta</t>
+  </si>
+  <si>
+    <t>HU-0002</t>
+  </si>
+  <si>
+    <t>Como un usuario registrado, necesito iniciar sesión en la plataforma, con la finalidad de acceder a mi cuenta.</t>
+  </si>
+  <si>
+    <t>HU-0003</t>
+  </si>
+  <si>
+    <t>Como un administrador, necesito realizar la gestion de inventario de la tienda, con la finalidad de poseer un registro de los productos que están a la venta.</t>
+  </si>
+  <si>
+    <t>Gestionar Inventario</t>
+  </si>
+  <si>
+    <t>HU-0004</t>
+  </si>
+  <si>
+    <t>Como un cliente, necesito navegar por el catálogo de productos, con la finalidad de encontrar productos que me interesen</t>
+  </si>
+  <si>
+    <t>HU-0005</t>
+  </si>
+  <si>
+    <t>Como un cliente, necesito acceder al asistente virtual de la plataforma, con la finalidad de obtener atencion personalizada</t>
+  </si>
+  <si>
+    <t>Acceso asistente IA</t>
+  </si>
+  <si>
+    <t>HU-0006</t>
+  </si>
+  <si>
+    <t>Como un cliente, necesito acceder al carrito de compras, con la finalidad de añadir productos de mi interés para la compra.</t>
+  </si>
+  <si>
+    <t>HU-0007</t>
+  </si>
+  <si>
+    <t>HU-0008</t>
+  </si>
+  <si>
+    <t>Como un administrador, necesito observar las ventas registradas, con la finalidad de actualizar el stock en tiempo real</t>
+  </si>
+  <si>
+    <t>HU-0009</t>
+  </si>
+  <si>
+    <t>Como un usuario, necesito calificar mi experiencia de compra, con la finalidad de proveer retroalimentación sobre los servicios de la plataforma.</t>
+  </si>
+  <si>
+    <t>HU-0010</t>
+  </si>
+  <si>
+    <t>Como un administrador, necesito gestionar las compras a los proveedores, con la finalidad de tener un registro de los productos adquiridos a cada proveedor.</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I51"/>
+  <dimension ref="B1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,7 +1455,7 @@
     </row>
     <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>182</v>
@@ -1358,311 +1475,287 @@
       <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>95</v>
+      <c r="B20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>98</v>
+        <v>211</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>101</v>
+        <v>213</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>104</v>
+        <v>216</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>61</v>
@@ -1670,22 +1763,20 @@
       <c r="H23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>108</v>
+        <v>218</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>27</v>
@@ -1696,25 +1787,23 @@
       <c r="H24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>111</v>
+        <v>219</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>61</v>
@@ -1722,22 +1811,20 @@
       <c r="H25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>114</v>
+        <v>221</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>27</v>
@@ -1748,25 +1835,23 @@
       <c r="H26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>117</v>
+        <v>223</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>61</v>
@@ -1774,71 +1859,69 @@
       <c r="H27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>120</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>90</v>
+      <c r="I28" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>123</v>
+        <v>29</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>90</v>
+      <c r="I29" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>126</v>
+        <v>35</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>57</v>
@@ -1847,50 +1930,50 @@
         <v>21</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>90</v>
+      <c r="I30" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>129</v>
+        <v>39</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>90</v>
+      <c r="I31" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>57</v>
@@ -1904,201 +1987,201 @@
       <c r="H32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>90</v>
+      <c r="I32" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>90</v>
+      <c r="I33" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="H35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>80</v>
+      <c r="B36" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>81</v>
+        <v>97</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>82</v>
+        <v>103</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>83</v>
+        <v>107</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>57</v>
@@ -2107,264 +2190,264 @@
         <v>27</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>84</v>
+        <v>110</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>85</v>
+        <v>113</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>86</v>
+        <v>116</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>87</v>
+        <v>119</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>88</v>
+        <v>122</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>89</v>
+        <v>125</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="I47" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="I48" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>60</v>
@@ -2372,25 +2455,25 @@
       <c r="H50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="I50" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>61</v>
@@ -2398,7 +2481,423 @@
       <c r="H51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732703B9-752E-4220-87D6-486188D5136B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE9A815-5FFB-47CE-B9F0-FAB261F7FF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="240">
   <si>
     <t>Columna</t>
   </si>
@@ -804,6 +804,51 @@
   </si>
   <si>
     <t>Como un administrador, necesito gestionar las compras a los proveedores, con la finalidad de tener un registro de los productos adquiridos a cada proveedor.</t>
+  </si>
+  <si>
+    <t>HT-0014</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito añadir una opción de busqueda dentro de la "Catalogo de productos", con la finalidad de brindar una mejor experiencia al cliente.</t>
+  </si>
+  <si>
+    <t>Añadir busqueda al Catalogo de productos</t>
+  </si>
+  <si>
+    <t>HT-0015</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito realizar correcciones en las funcionalidades de "Registro de Compras de Productos a los Proveedores" , con la finalidad de tener una mejor gestion de los productos que se adquieren a los distinros proveedores.</t>
+  </si>
+  <si>
+    <t>Correcciones a la funcionalidad "Registro de Compras de Productos a los Proveedores"</t>
+  </si>
+  <si>
+    <t>HU-0011</t>
+  </si>
+  <si>
+    <t>Como un proveedor, necesito poder registarme y tener acceso a la plataforma, con la finalidad de acceder a los servicios que corresponden.</t>
+  </si>
+  <si>
+    <t>Registro y acceso Proveedores</t>
+  </si>
+  <si>
+    <t>HU-0012</t>
+  </si>
+  <si>
+    <t>Como un proveedor, necesito tener la posibilidad de añadir los distintos productos que ofrezco, con la finalidad de mostrar mi oferta al posible comprador.</t>
+  </si>
+  <si>
+    <t>Añadir productos Proveedores</t>
+  </si>
+  <si>
+    <t>HU-0013</t>
+  </si>
+  <si>
+    <t>Como un administrador, necesito poder ver todos los productos que ofrecen los proveedores, para poder tomar una decisión de compra posteriormente.</t>
+  </si>
+  <si>
+    <t>Vista Catalogo productos del Proveedor</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I67"/>
+  <dimension ref="B1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1863,143 +1908,143 @@
     </row>
     <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>30</v>
+        <v>148</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>34</v>
+        <v>148</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>36</v>
+        <v>231</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>38</v>
+      <c r="I30" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>40</v>
+        <v>234</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>42</v>
+      <c r="I31" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>44</v>
+        <v>237</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>47</v>
+      <c r="I32" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>57</v>
@@ -2008,56 +2053,56 @@
         <v>27</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>60</v>
@@ -2065,25 +2110,25 @@
       <c r="H35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>90</v>
+      <c r="I35" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>95</v>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>60</v>
@@ -2091,25 +2136,25 @@
       <c r="H36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>90</v>
+      <c r="I36" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>43</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>60</v>
@@ -2117,80 +2162,80 @@
       <c r="H37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>90</v>
+      <c r="I37" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>101</v>
+        <v>48</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="G39" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>90</v>
+      <c r="I39" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>23</v>
@@ -2200,14 +2245,14 @@
       </c>
     </row>
     <row r="41" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>111</v>
+      <c r="B41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>57</v>
@@ -2216,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>23</v>
@@ -2225,15 +2270,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>114</v>
+        <v>97</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>57</v>
@@ -2242,284 +2287,284 @@
         <v>27</v>
       </c>
       <c r="G42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
+      <c r="H44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="E48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="H48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>65</v>
+        <v>119</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>77</v>
+        <v>122</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>79</v>
+        <v>125</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>80</v>
+        <v>128</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>57</v>
@@ -2528,7 +2573,7 @@
         <v>21</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>23</v>
@@ -2539,22 +2584,22 @@
     </row>
     <row r="54" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>23</v>
@@ -2565,22 +2610,22 @@
     </row>
     <row r="55" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>23</v>
@@ -2591,13 +2636,13 @@
     </row>
     <row r="56" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>57</v>
@@ -2606,7 +2651,7 @@
         <v>27</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>23</v>
@@ -2617,22 +2662,22 @@
     </row>
     <row r="57" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>23</v>
@@ -2643,13 +2688,13 @@
     </row>
     <row r="58" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>57</v>
@@ -2658,7 +2703,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>23</v>
@@ -2669,22 +2714,22 @@
     </row>
     <row r="59" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B59" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>23</v>
@@ -2695,13 +2740,13 @@
     </row>
     <row r="60" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>57</v>
@@ -2710,7 +2755,7 @@
         <v>21</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>23</v>
@@ -2721,13 +2766,13 @@
     </row>
     <row r="61" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>57</v>
@@ -2736,7 +2781,7 @@
         <v>27</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>23</v>
@@ -2747,19 +2792,19 @@
     </row>
     <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>63</v>
@@ -2771,133 +2816,263 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="I63" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="I64" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H70" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B66" s="5" t="s">
+    <row r="71" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B71" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H66" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I66" s="5" t="s">
+      <c r="H71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B67" s="5" t="s">
+    <row r="72" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B72" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H67" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" s="5" t="s">
+      <c r="H72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE9A815-5FFB-47CE-B9F0-FAB261F7FF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FF4579-41BC-48D0-BD1C-598DAB3E6DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="264">
   <si>
     <t>Columna</t>
   </si>
@@ -119,9 +119,6 @@
     <t>3 puntos</t>
   </si>
   <si>
-    <t>Verificar credenciales</t>
-  </si>
-  <si>
     <t>01-0002-0001</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>Guardar y actualizar productos</t>
-  </si>
-  <si>
     <t>01-0002-0002</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Modificar Producto</t>
   </si>
   <si>
-    <t>Registro de modificaciones</t>
-  </si>
-  <si>
     <t>01-0002-0003</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>Eliminar Producto</t>
   </si>
   <si>
-    <t>Registro de eliminacion</t>
-  </si>
-  <si>
     <t>01-0003-0001</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Navegar, filtrar y ver detalles</t>
-  </si>
-  <si>
     <t>01-0003-0002</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t>Filtrar Productos</t>
   </si>
   <si>
-    <t>Filtros por categoría, precio, características</t>
-  </si>
-  <si>
     <t>01-0003-0003</t>
   </si>
   <si>
@@ -201,9 +183,6 @@
   </si>
   <si>
     <t>4 puntos</t>
-  </si>
-  <si>
-    <t>Nombre, descripción, precio, disponibilidad</t>
   </si>
   <si>
     <t>Planificada</t>
@@ -849,6 +828,99 @@
   </si>
   <si>
     <t>Vista Catalogo productos del Proveedor</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito elaborar el mapa de navegación de mi sistema, con la finalidad de proporcionar la logica de navegcaión que el usuario deberá seguir al momento de usarlo.</t>
+  </si>
+  <si>
+    <t>Mapa de navegación</t>
+  </si>
+  <si>
+    <t>Sprint5</t>
+  </si>
+  <si>
+    <t>HT-0016</t>
+  </si>
+  <si>
+    <t>HT-0017</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar las interfaces de la capa presentación correspondiente a la función "Sistema de Registro y Autenticación"</t>
+  </si>
+  <si>
+    <t>Capa presentación "Sistema de Registro y Autenticación"</t>
+  </si>
+  <si>
+    <t>Iniciada</t>
+  </si>
+  <si>
+    <t>HT-0018</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar las interfaces de la capa presentación correspondiente a la función "Gestión de Inventario"</t>
+  </si>
+  <si>
+    <t>Capa presentación "Sistema de Gestión de Productos"</t>
+  </si>
+  <si>
+    <t>HT-0019</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar las interfaces de la capa presentación correspondiente a la función "Catálogo de Productos"</t>
+  </si>
+  <si>
+    <t>Capa presentación "Catálogo de Productos"</t>
+  </si>
+  <si>
+    <t>HT-0020</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar las interfaces de la capa presentación correspondiente a la función "Asistente Virtual con Inteligencia Artificial"</t>
+  </si>
+  <si>
+    <t>Capa presentación "Asistente Virtual con Inteligencia Artificial"</t>
+  </si>
+  <si>
+    <t>HT-0021</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar las interfaces de la capa presentación correspondiente a la función "Carrito de Compras"</t>
+  </si>
+  <si>
+    <t>Capa presentación "Carrito de Compras"</t>
+  </si>
+  <si>
+    <t>HT-0022</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar las interfaces de la capa presentación correspondiente a la función "Proceso de Pago"</t>
+  </si>
+  <si>
+    <t>Capa presentación "Proceso de Pago"</t>
+  </si>
+  <si>
+    <t>HT-0023</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar las interfaces de la capa presentación correspondiente a la función "Sistema de Gestión de Ventas"</t>
+  </si>
+  <si>
+    <t>Capa presentación "Sistema de Gestión de Ventas"</t>
+  </si>
+  <si>
+    <t>HT-0024</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar las interfaces de la capa presentación correspondiente a la función "Sistema de medición de satisfacción"</t>
+  </si>
+  <si>
+    <t>Capa presentación "Sistema de medición de satisfacción"</t>
+  </si>
+  <si>
+    <t>HT-0025</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar las interfaces de la capa presentación correspondiente a la función "Gestión de Registro de Compras de Productos a los Proveedores"</t>
   </si>
 </sst>
 </file>
@@ -953,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -981,6 +1053,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I72"/>
+  <dimension ref="B1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,7 +1388,7 @@
     </row>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1344,16 +1419,16 @@
     </row>
     <row r="5" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>27</v>
@@ -1365,1715 +1440,1964 @@
         <v>23</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="H27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="H29" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="H30" s="5" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="H31" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>25</v>
+        <v>230</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>28</v>
+      <c r="I33" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>30</v>
+        <v>237</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>34</v>
+      <c r="I34" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>36</v>
+        <v>241</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>38</v>
+      <c r="I35" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>40</v>
+        <v>244</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I36" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>44</v>
+        <v>247</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>47</v>
+      <c r="I37" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="G38" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>51</v>
+      <c r="I38" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>53</v>
+        <v>253</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="H40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>95</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>98</v>
+        <v>262</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>101</v>
+        <v>24</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>104</v>
+        <v>28</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>108</v>
+        <v>33</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="G46" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>114</v>
+        <v>39</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>117</v>
+        <v>43</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>90</v>
+      <c r="I48" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>120</v>
+        <v>46</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I49" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>123</v>
+        <v>84</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>90</v>
+      <c r="I50" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>126</v>
+      <c r="B51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>90</v>
+      <c r="I51" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>90</v>
+      <c r="I52" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>65</v>
+        <v>96</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>77</v>
+        <v>100</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>79</v>
+        <v>103</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>80</v>
+        <v>106</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>81</v>
+        <v>109</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B59" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>81</v>
+        <v>112</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>82</v>
+        <v>115</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>83</v>
+        <v>118</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>84</v>
+        <v>121</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I63" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I64" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I64" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I65" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I65" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B66" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I66" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G67" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H67" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="B69" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="E69" s="5" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I69" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B70" s="5" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H70" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B72" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B76" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B77" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B78" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B81" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B82" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B71" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B72" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>157</v>
+      <c r="E82" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova2\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BABFDB-CAED-4746-9205-7AC7526C11A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F383280-C9C2-4770-96E2-1408833FFBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="167">
   <si>
     <t>Columna</t>
   </si>
@@ -413,9 +413,6 @@
     <t>Capa presentación "Sistema de Registro y Autenticación"</t>
   </si>
   <si>
-    <t>Iniciada</t>
-  </si>
-  <si>
     <t>HT-0018</t>
   </si>
   <si>
@@ -492,6 +489,51 @@
   </si>
   <si>
     <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Facturación Eletrónica</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar la funcion de facturación electrónica, con la finalidad de poder entregar comprobantes de compra legales a los clientes.</t>
+  </si>
+  <si>
+    <t>HT-0026</t>
+  </si>
+  <si>
+    <t>HT-0027</t>
+  </si>
+  <si>
+    <t>Dashboard Administrador</t>
+  </si>
+  <si>
+    <t>HT-0028</t>
+  </si>
+  <si>
+    <t>Dashboard Proveedor</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero implementar un dashboard para el administrador, con la finalidad de presentar visualmente las distintas funciones de manera mas eficiente.</t>
+  </si>
+  <si>
+    <t>HT-0029</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero añadir una ventana modal para los productos del catalogo, con la finalidad de que se muestren los detalles de los productos ofertados</t>
+  </si>
+  <si>
+    <t>Ventana Modal Productos</t>
+  </si>
+  <si>
+    <t>HT-0030</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero añadir mas estilos a las interfaces de la plaatforma, con la finalidad de mejorar la estética de este producto de software.</t>
+  </si>
+  <si>
+    <t>Ultimos detalles Frontend</t>
   </si>
 </sst>
 </file>
@@ -930,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I42"/>
+  <dimension ref="B1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,10 +1190,10 @@
         <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>47</v>
@@ -1752,7 +1794,7 @@
         <v>125</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>25</v>
@@ -1769,16 +1811,16 @@
     </row>
     <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>32</v>
@@ -1795,16 +1837,16 @@
     </row>
     <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>32</v>
@@ -1821,16 +1863,16 @@
     </row>
     <row r="37" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>32</v>
@@ -1847,22 +1889,22 @@
     </row>
     <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="E38" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>23</v>
@@ -1873,22 +1915,22 @@
     </row>
     <row r="39" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="E39" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>23</v>
@@ -1899,22 +1941,22 @@
     </row>
     <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="E40" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>23</v>
@@ -1925,22 +1967,22 @@
     </row>
     <row r="41" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>23</v>
@@ -1951,27 +1993,157 @@
     </row>
     <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="7" t="s">
+      <c r="H43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova2\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F383280-C9C2-4770-96E2-1408833FFBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D932C12-04AA-4562-AF03-A27BA438C696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="170">
   <si>
     <t>Columna</t>
   </si>
@@ -530,10 +530,19 @@
     <t>HT-0030</t>
   </si>
   <si>
-    <t>Como un desarrollador, quiero añadir mas estilos a las interfaces de la plaatforma, con la finalidad de mejorar la estética de este producto de software.</t>
-  </si>
-  <si>
     <t>Ultimos detalles Frontend</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero añadir mas estilos a las interfaces de la plataforma, con la finalidad de mejorar la estética de este producto de software.</t>
+  </si>
+  <si>
+    <t>HT-0031</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, quiero actulizar toda la documentacion del software al día, con la finalidad de que los documentos sean concordantes con el proyecto desarrollado</t>
+  </si>
+  <si>
+    <t>Revisión Documentación</t>
   </si>
 </sst>
 </file>
@@ -972,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I47"/>
+  <dimension ref="B1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2126,10 +2135,10 @@
         <v>164</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>47</v>
@@ -2144,6 +2153,32 @@
         <v>43</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova2\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D932C12-04AA-4562-AF03-A27BA438C696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D887138F-16A6-4FAC-96FC-7624935BB160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>Sprint 9</t>
   </si>
   <si>
-    <t>Facturación Eletrónica</t>
-  </si>
-  <si>
     <t>Como un desarrollador, quiero implementar la funcion de facturación electrónica, con la finalidad de poder entregar comprobantes de compra legales a los clientes.</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>Revisión Documentación</t>
+  </si>
+  <si>
+    <t>Facturación Electrónica</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
   <dimension ref="B1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>47</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="44" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>47</v>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>47</v>
@@ -2106,13 +2106,13 @@
     </row>
     <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>47</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="47" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>47</v>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="48" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>47</v>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova2\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D887138F-16A6-4FAC-96FC-7624935BB160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418CC67-72F3-47C8-A584-7F0150AC7C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentos/Product Backlog.xlsx
+++ b/Documentos/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOAPPS2\nova2\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418CC67-72F3-47C8-A584-7F0150AC7C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C0736-8F4D-412A-ABCB-9F7D2F4323AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
